--- a/Sociedad/12.4.xlsx
+++ b/Sociedad/12.4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Sociedad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F590A9-626C-4BDE-B072-5423252833C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B69656C-F768-4EB1-8460-48063A26B876}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2421E60-FA2B-4B12-A935-C973554BC8B8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19349" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19152" uniqueCount="602">
   <si>
     <t>Region</t>
   </si>
@@ -1853,9 +1853,6 @@
   <si>
     <t>Id_Categoría</t>
   </si>
-  <si>
-    <t>FALTA</t>
-  </si>
 </sst>
 </file>
 
@@ -1878,18 +1875,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1936,21 +1927,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="101">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
@@ -1975,6 +1957,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2389,112 +2380,112 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4FE5817E-E2C1-46F2-8945-A99C11E809FE}" name="_2021_Nacimientos" displayName="_2021_Nacimientos" ref="A1:CU198" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:CU198" xr:uid="{1F56CDB1-33D4-48E8-93E2-B049FAB63B84}"/>
   <tableColumns count="99">
-    <tableColumn id="97" xr3:uid="{9A9B6C13-BD3C-498E-8D51-E96D81E4E14C}" uniqueName="97" name="Id_Producto" queryTableFieldId="99" dataDxfId="2"/>
-    <tableColumn id="98" xr3:uid="{7EDA3B0B-BB61-45E2-BA2D-18682A5BEB78}" uniqueName="98" name="Producto" queryTableFieldId="98" dataDxfId="1"/>
-    <tableColumn id="99" xr3:uid="{B1F67B8A-5D4D-4CE1-A822-5DF86D9B826D}" uniqueName="99" name="Id_Categoría" queryTableFieldId="97" dataDxfId="0"/>
-    <tableColumn id="96" xr3:uid="{3F47B622-D98D-4D3C-A21E-156E03AFC3E9}" uniqueName="96" name="Categoría" queryTableFieldId="96" dataDxfId="100"/>
-    <tableColumn id="1" xr3:uid="{9BE3CEB5-34AC-431C-BD36-C38FC4C76FA0}" uniqueName="1" name="Region" queryTableFieldId="1" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{14E318E2-8BF5-4211-A031-B3609B365FB2}" uniqueName="2" name="Codigo region" queryTableFieldId="2" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{85DF2F15-7046-43BA-B0A3-323053825C8B}" uniqueName="3" name="Comuna" queryTableFieldId="3" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{92E67363-2671-44CE-A1C6-88D2DDC6F38F}" uniqueName="4" name="Codigo comuna" queryTableFieldId="4" dataDxfId="96"/>
-    <tableColumn id="5" xr3:uid="{BA67D1A0-5B4A-4C80-8D66-2378C46A8071}" uniqueName="5" name="2021-01-02" queryTableFieldId="5" dataDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{2766B41D-D968-4CB7-99EF-ED5A8F7808DE}" uniqueName="6" name="2021-01-03" queryTableFieldId="6" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{424B2A4D-3DAC-4247-9EE2-D9910A9071E9}" uniqueName="7" name="2021-01-04" queryTableFieldId="7" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{BB185124-4EAB-4538-BDEC-AF97AE541087}" uniqueName="8" name="2021-01-05" queryTableFieldId="8" dataDxfId="92"/>
-    <tableColumn id="9" xr3:uid="{CDB38C0F-B4D6-4F38-AED1-709042B50FE8}" uniqueName="9" name="2021-01-06" queryTableFieldId="9" dataDxfId="91"/>
-    <tableColumn id="10" xr3:uid="{6727958B-0AAD-4A01-919E-26112339B1C5}" uniqueName="10" name="2021-01-07" queryTableFieldId="10" dataDxfId="90"/>
-    <tableColumn id="11" xr3:uid="{22A2BDE7-4FDD-470A-99D8-FE1961E27C8C}" uniqueName="11" name="2021-01-08" queryTableFieldId="11" dataDxfId="89"/>
-    <tableColumn id="12" xr3:uid="{EF0FAF71-15E8-4C74-8B48-C222EDAC0DE2}" uniqueName="12" name="2021-01-09" queryTableFieldId="12" dataDxfId="88"/>
-    <tableColumn id="13" xr3:uid="{70543794-CAD9-47C6-AEB7-10F6152CB384}" uniqueName="13" name="2021-01-11" queryTableFieldId="13" dataDxfId="87"/>
-    <tableColumn id="14" xr3:uid="{1D6729DB-FF12-435F-B894-24A7FF339C67}" uniqueName="14" name="2021-01-12" queryTableFieldId="14" dataDxfId="86"/>
-    <tableColumn id="15" xr3:uid="{D6948E44-39A1-4923-BA43-BE52D2FB45FD}" uniqueName="15" name="2021-01-13" queryTableFieldId="15" dataDxfId="85"/>
-    <tableColumn id="16" xr3:uid="{80ECA247-DA84-4A11-B521-D8667D5E040E}" uniqueName="16" name="2021-01-14" queryTableFieldId="16" dataDxfId="84"/>
-    <tableColumn id="17" xr3:uid="{6E3F9FC1-1B8E-4C43-83DF-35446063BB9C}" uniqueName="17" name="2021-01-15" queryTableFieldId="17" dataDxfId="83"/>
-    <tableColumn id="18" xr3:uid="{B20BBD46-5BB3-4321-904C-82499C91837F}" uniqueName="18" name="2021-01-16" queryTableFieldId="18" dataDxfId="82"/>
-    <tableColumn id="19" xr3:uid="{CAA39842-A4EE-4CC4-8D93-47C83B48729B}" uniqueName="19" name="2021-01-18" queryTableFieldId="19" dataDxfId="81"/>
-    <tableColumn id="20" xr3:uid="{E1DDE4D5-B298-4C82-8645-A7DC40700B69}" uniqueName="20" name="2021-01-19" queryTableFieldId="20" dataDxfId="80"/>
-    <tableColumn id="21" xr3:uid="{1B298074-94C6-4DF0-9E47-2863471BA0B3}" uniqueName="21" name="2021-01-20" queryTableFieldId="21" dataDxfId="79"/>
-    <tableColumn id="22" xr3:uid="{A3EA06E5-7081-4655-95B7-F4DDDEA71881}" uniqueName="22" name="2021-01-21" queryTableFieldId="22" dataDxfId="78"/>
-    <tableColumn id="23" xr3:uid="{F776D109-12F4-4BE9-9031-F5823E05E938}" uniqueName="23" name="2021-01-22" queryTableFieldId="23" dataDxfId="77"/>
-    <tableColumn id="24" xr3:uid="{B3CFCBC5-4404-4607-B4E0-86D382EAA8B8}" uniqueName="24" name="2021-01-23" queryTableFieldId="24" dataDxfId="76"/>
-    <tableColumn id="25" xr3:uid="{D8B08826-A617-4432-86D6-1F2BDFC06E44}" uniqueName="25" name="2021-01-25" queryTableFieldId="25" dataDxfId="75"/>
-    <tableColumn id="26" xr3:uid="{253371C8-F1A4-4853-987F-692F2010E3C1}" uniqueName="26" name="2021-01-26" queryTableFieldId="26" dataDxfId="74"/>
-    <tableColumn id="27" xr3:uid="{D9A7972C-B0F3-4905-BF6A-ADA5041A2DA1}" uniqueName="27" name="2021-01-27" queryTableFieldId="27" dataDxfId="73"/>
-    <tableColumn id="28" xr3:uid="{632E29EF-F4A9-46DB-A222-2E06B4CFFD4D}" uniqueName="28" name="2021-01-28" queryTableFieldId="28" dataDxfId="72"/>
-    <tableColumn id="29" xr3:uid="{27168247-1B24-4315-8F81-C9AB2DD0AF92}" uniqueName="29" name="2021-01-29" queryTableFieldId="29" dataDxfId="71"/>
-    <tableColumn id="30" xr3:uid="{8A7D22B6-2C19-460A-832C-FE94663BA1D5}" uniqueName="30" name="2021-02-01" queryTableFieldId="30" dataDxfId="70"/>
-    <tableColumn id="31" xr3:uid="{FB551B5E-2E56-42E0-A7AA-D1A460560E57}" uniqueName="31" name="2021-02-02" queryTableFieldId="31" dataDxfId="69"/>
-    <tableColumn id="32" xr3:uid="{A67FF3A5-4642-4CF3-BCED-B3572D6BD929}" uniqueName="32" name="2021-02-03" queryTableFieldId="32" dataDxfId="68"/>
-    <tableColumn id="33" xr3:uid="{71DC5E20-D55D-422B-A8D5-B3325804A090}" uniqueName="33" name="2021-02-04" queryTableFieldId="33" dataDxfId="67"/>
-    <tableColumn id="34" xr3:uid="{CEA51D88-EDEC-41AC-B207-CE0B657168D6}" uniqueName="34" name="2021-02-05" queryTableFieldId="34" dataDxfId="66"/>
-    <tableColumn id="35" xr3:uid="{81E55495-A2D5-49E0-B3EF-CA2C6DB567D8}" uniqueName="35" name="2021-02-06" queryTableFieldId="35" dataDxfId="65"/>
-    <tableColumn id="36" xr3:uid="{0E1F4EE4-8005-4A57-85E4-4565C23DC588}" uniqueName="36" name="2021-02-08" queryTableFieldId="36" dataDxfId="64"/>
-    <tableColumn id="37" xr3:uid="{8F72ADDC-5ECB-41BE-9992-2C24CD8D0F48}" uniqueName="37" name="2021-02-09" queryTableFieldId="37" dataDxfId="63"/>
-    <tableColumn id="38" xr3:uid="{F63B76BF-4656-4A90-A9A6-ADF1B9B6A905}" uniqueName="38" name="2021-02-10" queryTableFieldId="38" dataDxfId="62"/>
-    <tableColumn id="39" xr3:uid="{67BAD283-BCD2-4AF3-A4CB-10FB474000F2}" uniqueName="39" name="2021-02-11" queryTableFieldId="39" dataDxfId="61"/>
-    <tableColumn id="40" xr3:uid="{A2256D42-D852-4ACD-9829-9C7A5B785603}" uniqueName="40" name="2021-02-12" queryTableFieldId="40" dataDxfId="60"/>
-    <tableColumn id="41" xr3:uid="{CCBC68B1-E87A-44FD-ADB5-AD3371898424}" uniqueName="41" name="2021-02-13" queryTableFieldId="41" dataDxfId="59"/>
-    <tableColumn id="42" xr3:uid="{905F3067-DCDD-4339-84E4-CC01BFF14869}" uniqueName="42" name="2021-02-14" queryTableFieldId="42" dataDxfId="58"/>
-    <tableColumn id="43" xr3:uid="{C2C62817-513E-418D-860E-7D00294ED275}" uniqueName="43" name="2021-02-15" queryTableFieldId="43" dataDxfId="57"/>
-    <tableColumn id="44" xr3:uid="{D6101F81-EE44-43F8-AF33-0A0714E790DD}" uniqueName="44" name="2021-02-16" queryTableFieldId="44" dataDxfId="56"/>
-    <tableColumn id="45" xr3:uid="{F1028BA9-33D8-4089-BB69-37948ED93599}" uniqueName="45" name="2021-02-17" queryTableFieldId="45" dataDxfId="55"/>
-    <tableColumn id="46" xr3:uid="{AF904653-5D4E-4862-B975-7EAD2E088AE1}" uniqueName="46" name="2021-02-18" queryTableFieldId="46" dataDxfId="54"/>
-    <tableColumn id="47" xr3:uid="{DC3E207A-62AC-4DC0-AF9B-9C7CF9153A0E}" uniqueName="47" name="2021-02-19" queryTableFieldId="47" dataDxfId="53"/>
-    <tableColumn id="48" xr3:uid="{CF547C87-79D3-4B6A-ADF3-85F8714960B1}" uniqueName="48" name="2021-02-20" queryTableFieldId="48" dataDxfId="52"/>
-    <tableColumn id="49" xr3:uid="{FBDAD5C6-9586-4868-88BF-86A203F76A88}" uniqueName="49" name="2021-02-22" queryTableFieldId="49" dataDxfId="51"/>
-    <tableColumn id="50" xr3:uid="{A44788EA-F58D-4FBB-87CD-547DAF1FD297}" uniqueName="50" name="2021-02-23" queryTableFieldId="50" dataDxfId="50"/>
-    <tableColumn id="51" xr3:uid="{1F213778-1598-4704-B90E-97248AE0B45B}" uniqueName="51" name="2021-02-24" queryTableFieldId="51" dataDxfId="49"/>
-    <tableColumn id="52" xr3:uid="{52E913C1-981E-4366-9774-6EDFE5D6C14B}" uniqueName="52" name="2021-02-25" queryTableFieldId="52" dataDxfId="48"/>
-    <tableColumn id="53" xr3:uid="{A3A9F7BB-1502-402B-AE17-9DCEC71CF81F}" uniqueName="53" name="2021-02-26" queryTableFieldId="53" dataDxfId="47"/>
-    <tableColumn id="54" xr3:uid="{B122FCBD-13A1-4CC4-83A2-F697FF9CBCFC}" uniqueName="54" name="2021-02-27" queryTableFieldId="54" dataDxfId="46"/>
-    <tableColumn id="55" xr3:uid="{78119972-60E3-46A8-BE50-47A57B6F1506}" uniqueName="55" name="2021-03-01" queryTableFieldId="55" dataDxfId="45"/>
-    <tableColumn id="56" xr3:uid="{8C909AB3-C1B8-4AE4-B6D2-EE87129F70E2}" uniqueName="56" name="2021-03-02" queryTableFieldId="56" dataDxfId="44"/>
-    <tableColumn id="57" xr3:uid="{D1020877-ED05-46CF-9475-8CCC6D903432}" uniqueName="57" name="2021-03-03" queryTableFieldId="57" dataDxfId="43"/>
-    <tableColumn id="58" xr3:uid="{87871F80-DE5A-4F74-985C-75D9F0179E3E}" uniqueName="58" name="2021-03-04" queryTableFieldId="58" dataDxfId="42"/>
-    <tableColumn id="59" xr3:uid="{CAA9287D-5DB6-4F97-80B7-373DFCB0239E}" uniqueName="59" name="2021-03-05" queryTableFieldId="59" dataDxfId="41"/>
-    <tableColumn id="60" xr3:uid="{F9AFEBE6-FD50-47F5-AFED-5555D3BA65ED}" uniqueName="60" name="2021-03-06" queryTableFieldId="60" dataDxfId="40"/>
-    <tableColumn id="61" xr3:uid="{BD92C81F-B2B2-48F3-9BD9-DC1B2BC16C43}" uniqueName="61" name="2021-03-08" queryTableFieldId="61" dataDxfId="39"/>
-    <tableColumn id="62" xr3:uid="{AA0DD6EA-49D4-49BA-9D5A-1C91DE243884}" uniqueName="62" name="2021-03-09" queryTableFieldId="62" dataDxfId="38"/>
-    <tableColumn id="63" xr3:uid="{424C4863-BEA4-459E-9417-409AE2033F1E}" uniqueName="63" name="2021-03-10" queryTableFieldId="63" dataDxfId="37"/>
-    <tableColumn id="64" xr3:uid="{7E0EFF6F-51A0-4BAF-A6CC-2878D3803206}" uniqueName="64" name="2021-03-11" queryTableFieldId="64" dataDxfId="36"/>
-    <tableColumn id="65" xr3:uid="{2F1EEC04-E850-4C52-987B-37DAD3A7763A}" uniqueName="65" name="2021-03-12" queryTableFieldId="65" dataDxfId="35"/>
-    <tableColumn id="66" xr3:uid="{7CB88313-FF50-4E4F-8624-9099E78F2457}" uniqueName="66" name="2021-03-13" queryTableFieldId="66" dataDxfId="34"/>
-    <tableColumn id="67" xr3:uid="{6E857539-0A28-4F05-8AD7-A4B30ADA939D}" uniqueName="67" name="2021-03-15" queryTableFieldId="67" dataDxfId="33"/>
-    <tableColumn id="68" xr3:uid="{311EA0CA-FC3F-437C-A027-12814924B7BF}" uniqueName="68" name="2021-03-16" queryTableFieldId="68" dataDxfId="32"/>
-    <tableColumn id="69" xr3:uid="{6A65FA86-1F4B-40FE-A7FB-5E04B59D10F2}" uniqueName="69" name="2021-03-17" queryTableFieldId="69" dataDxfId="31"/>
-    <tableColumn id="70" xr3:uid="{61E6AE3D-61D0-4C36-858B-F5CEF71DD415}" uniqueName="70" name="2021-03-18" queryTableFieldId="70" dataDxfId="30"/>
-    <tableColumn id="71" xr3:uid="{0031C90F-0AAD-42CE-8E4B-994C0764B18C}" uniqueName="71" name="2021-03-19" queryTableFieldId="71" dataDxfId="29"/>
-    <tableColumn id="72" xr3:uid="{80934990-C0BD-4741-BF52-E6DD58F8FD11}" uniqueName="72" name="2021-03-20" queryTableFieldId="72" dataDxfId="28"/>
-    <tableColumn id="73" xr3:uid="{5257B932-2DA4-4B7E-BD4E-E97519FA29A5}" uniqueName="73" name="2021-03-22" queryTableFieldId="73" dataDxfId="27"/>
-    <tableColumn id="74" xr3:uid="{7E071135-627B-410A-8EB8-3B430B240FF2}" uniqueName="74" name="2021-03-23" queryTableFieldId="74" dataDxfId="26"/>
-    <tableColumn id="75" xr3:uid="{DDB0CE6F-FFC3-48AB-A2FA-D109D7245D44}" uniqueName="75" name="2021-03-24" queryTableFieldId="75" dataDxfId="25"/>
-    <tableColumn id="76" xr3:uid="{34D92D41-B6E3-43DC-B607-AE2E28DD8E31}" uniqueName="76" name="2021-03-25" queryTableFieldId="76" dataDxfId="24"/>
-    <tableColumn id="77" xr3:uid="{C29F1DAB-2672-4337-A605-EFA7D1B71DED}" uniqueName="77" name="2021-03-26" queryTableFieldId="77" dataDxfId="23"/>
-    <tableColumn id="78" xr3:uid="{7074E839-802A-4B45-A967-5B7B478ECB19}" uniqueName="78" name="2021-03-29" queryTableFieldId="78" dataDxfId="22"/>
-    <tableColumn id="79" xr3:uid="{290A4EC5-571B-4742-A88E-F52665A1BC39}" uniqueName="79" name="2021-03-30" queryTableFieldId="79" dataDxfId="21"/>
-    <tableColumn id="80" xr3:uid="{BAF44ED4-CD3A-4020-ADB9-F644362B31FC}" uniqueName="80" name="2021-03-31" queryTableFieldId="80" dataDxfId="20"/>
-    <tableColumn id="81" xr3:uid="{8290D7C0-606C-4AE0-94FE-6A4340F93690}" uniqueName="81" name="2021-04-01" queryTableFieldId="81" dataDxfId="19"/>
-    <tableColumn id="82" xr3:uid="{E61D5B89-EB06-45A9-BD95-E0E27A28B4A7}" uniqueName="82" name="2021-04-03" queryTableFieldId="82" dataDxfId="18"/>
-    <tableColumn id="83" xr3:uid="{658D0956-A404-437E-828C-298F3C55147F}" uniqueName="83" name="2021-04-04" queryTableFieldId="83" dataDxfId="17"/>
-    <tableColumn id="84" xr3:uid="{111FC3F4-8CA0-4388-B521-5FC9436A8324}" uniqueName="84" name="2021-04-05" queryTableFieldId="84" dataDxfId="16"/>
-    <tableColumn id="85" xr3:uid="{4FE1A9EE-05A4-481C-B5A4-8B5B08F70307}" uniqueName="85" name="2021-04-06" queryTableFieldId="85" dataDxfId="15"/>
-    <tableColumn id="86" xr3:uid="{BBC8A6A8-7788-4130-BF75-EE3CFD0C7A1F}" uniqueName="86" name="2021-04-07" queryTableFieldId="86" dataDxfId="14"/>
-    <tableColumn id="87" xr3:uid="{10246CFE-3FEE-472D-8DF7-93A8FB449908}" uniqueName="87" name="2021-04-08" queryTableFieldId="87" dataDxfId="13"/>
-    <tableColumn id="88" xr3:uid="{2A7FDF7A-6D79-44C1-81AB-C28593316A7C}" uniqueName="88" name="2021-04-09" queryTableFieldId="88" dataDxfId="12"/>
-    <tableColumn id="89" xr3:uid="{24CBC6CB-936F-40BF-A437-9EC0031F7EC1}" uniqueName="89" name="2021-04-10" queryTableFieldId="89" dataDxfId="11"/>
-    <tableColumn id="90" xr3:uid="{D6F6DE07-F1E5-47A3-BB7E-E2446891E33E}" uniqueName="90" name="2021-04-12" queryTableFieldId="90" dataDxfId="10"/>
-    <tableColumn id="91" xr3:uid="{5BABBB2B-E164-4804-82E8-D64B17702690}" uniqueName="91" name="2021-04-13" queryTableFieldId="91" dataDxfId="9"/>
-    <tableColumn id="92" xr3:uid="{1CDAC74A-0F1D-49E7-9DD9-6AB8BBA5D14D}" uniqueName="92" name="2021-04-14" queryTableFieldId="92" dataDxfId="8"/>
-    <tableColumn id="93" xr3:uid="{C2080427-741D-4383-8715-6672EF96F8C2}" uniqueName="93" name="2021-04-15" queryTableFieldId="93" dataDxfId="7"/>
-    <tableColumn id="94" xr3:uid="{915BA8BC-E0BC-4BCA-AE37-4C4BEEC4AACE}" uniqueName="94" name="2021-04-16" queryTableFieldId="94" dataDxfId="6"/>
-    <tableColumn id="95" xr3:uid="{F4063C08-E665-4B95-8E49-56E024883C63}" uniqueName="95" name="2021-04-17" queryTableFieldId="95" dataDxfId="5"/>
+    <tableColumn id="97" xr3:uid="{9A9B6C13-BD3C-498E-8D51-E96D81E4E14C}" uniqueName="97" name="Id_Producto" queryTableFieldId="99" dataDxfId="100"/>
+    <tableColumn id="98" xr3:uid="{7EDA3B0B-BB61-45E2-BA2D-18682A5BEB78}" uniqueName="98" name="Producto" queryTableFieldId="98" dataDxfId="99"/>
+    <tableColumn id="99" xr3:uid="{B1F67B8A-5D4D-4CE1-A822-5DF86D9B826D}" uniqueName="99" name="Id_Categoría" queryTableFieldId="97" dataDxfId="98"/>
+    <tableColumn id="96" xr3:uid="{3F47B622-D98D-4D3C-A21E-156E03AFC3E9}" uniqueName="96" name="Categoría" queryTableFieldId="96" dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{9BE3CEB5-34AC-431C-BD36-C38FC4C76FA0}" uniqueName="1" name="Region" queryTableFieldId="1" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{14E318E2-8BF5-4211-A031-B3609B365FB2}" uniqueName="2" name="Codigo region" queryTableFieldId="2" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{85DF2F15-7046-43BA-B0A3-323053825C8B}" uniqueName="3" name="Comuna" queryTableFieldId="3" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{92E67363-2671-44CE-A1C6-88D2DDC6F38F}" uniqueName="4" name="Codigo comuna" queryTableFieldId="4" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{BA67D1A0-5B4A-4C80-8D66-2378C46A8071}" uniqueName="5" name="2021-01-02" queryTableFieldId="5" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{2766B41D-D968-4CB7-99EF-ED5A8F7808DE}" uniqueName="6" name="2021-01-03" queryTableFieldId="6" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{424B2A4D-3DAC-4247-9EE2-D9910A9071E9}" uniqueName="7" name="2021-01-04" queryTableFieldId="7" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{BB185124-4EAB-4538-BDEC-AF97AE541087}" uniqueName="8" name="2021-01-05" queryTableFieldId="8" dataDxfId="89"/>
+    <tableColumn id="9" xr3:uid="{CDB38C0F-B4D6-4F38-AED1-709042B50FE8}" uniqueName="9" name="2021-01-06" queryTableFieldId="9" dataDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{6727958B-0AAD-4A01-919E-26112339B1C5}" uniqueName="10" name="2021-01-07" queryTableFieldId="10" dataDxfId="87"/>
+    <tableColumn id="11" xr3:uid="{22A2BDE7-4FDD-470A-99D8-FE1961E27C8C}" uniqueName="11" name="2021-01-08" queryTableFieldId="11" dataDxfId="86"/>
+    <tableColumn id="12" xr3:uid="{EF0FAF71-15E8-4C74-8B48-C222EDAC0DE2}" uniqueName="12" name="2021-01-09" queryTableFieldId="12" dataDxfId="85"/>
+    <tableColumn id="13" xr3:uid="{70543794-CAD9-47C6-AEB7-10F6152CB384}" uniqueName="13" name="2021-01-11" queryTableFieldId="13" dataDxfId="84"/>
+    <tableColumn id="14" xr3:uid="{1D6729DB-FF12-435F-B894-24A7FF339C67}" uniqueName="14" name="2021-01-12" queryTableFieldId="14" dataDxfId="83"/>
+    <tableColumn id="15" xr3:uid="{D6948E44-39A1-4923-BA43-BE52D2FB45FD}" uniqueName="15" name="2021-01-13" queryTableFieldId="15" dataDxfId="82"/>
+    <tableColumn id="16" xr3:uid="{80ECA247-DA84-4A11-B521-D8667D5E040E}" uniqueName="16" name="2021-01-14" queryTableFieldId="16" dataDxfId="81"/>
+    <tableColumn id="17" xr3:uid="{6E3F9FC1-1B8E-4C43-83DF-35446063BB9C}" uniqueName="17" name="2021-01-15" queryTableFieldId="17" dataDxfId="80"/>
+    <tableColumn id="18" xr3:uid="{B20BBD46-5BB3-4321-904C-82499C91837F}" uniqueName="18" name="2021-01-16" queryTableFieldId="18" dataDxfId="79"/>
+    <tableColumn id="19" xr3:uid="{CAA39842-A4EE-4CC4-8D93-47C83B48729B}" uniqueName="19" name="2021-01-18" queryTableFieldId="19" dataDxfId="78"/>
+    <tableColumn id="20" xr3:uid="{E1DDE4D5-B298-4C82-8645-A7DC40700B69}" uniqueName="20" name="2021-01-19" queryTableFieldId="20" dataDxfId="77"/>
+    <tableColumn id="21" xr3:uid="{1B298074-94C6-4DF0-9E47-2863471BA0B3}" uniqueName="21" name="2021-01-20" queryTableFieldId="21" dataDxfId="76"/>
+    <tableColumn id="22" xr3:uid="{A3EA06E5-7081-4655-95B7-F4DDDEA71881}" uniqueName="22" name="2021-01-21" queryTableFieldId="22" dataDxfId="75"/>
+    <tableColumn id="23" xr3:uid="{F776D109-12F4-4BE9-9031-F5823E05E938}" uniqueName="23" name="2021-01-22" queryTableFieldId="23" dataDxfId="74"/>
+    <tableColumn id="24" xr3:uid="{B3CFCBC5-4404-4607-B4E0-86D382EAA8B8}" uniqueName="24" name="2021-01-23" queryTableFieldId="24" dataDxfId="73"/>
+    <tableColumn id="25" xr3:uid="{D8B08826-A617-4432-86D6-1F2BDFC06E44}" uniqueName="25" name="2021-01-25" queryTableFieldId="25" dataDxfId="72"/>
+    <tableColumn id="26" xr3:uid="{253371C8-F1A4-4853-987F-692F2010E3C1}" uniqueName="26" name="2021-01-26" queryTableFieldId="26" dataDxfId="71"/>
+    <tableColumn id="27" xr3:uid="{D9A7972C-B0F3-4905-BF6A-ADA5041A2DA1}" uniqueName="27" name="2021-01-27" queryTableFieldId="27" dataDxfId="70"/>
+    <tableColumn id="28" xr3:uid="{632E29EF-F4A9-46DB-A222-2E06B4CFFD4D}" uniqueName="28" name="2021-01-28" queryTableFieldId="28" dataDxfId="69"/>
+    <tableColumn id="29" xr3:uid="{27168247-1B24-4315-8F81-C9AB2DD0AF92}" uniqueName="29" name="2021-01-29" queryTableFieldId="29" dataDxfId="68"/>
+    <tableColumn id="30" xr3:uid="{8A7D22B6-2C19-460A-832C-FE94663BA1D5}" uniqueName="30" name="2021-02-01" queryTableFieldId="30" dataDxfId="67"/>
+    <tableColumn id="31" xr3:uid="{FB551B5E-2E56-42E0-A7AA-D1A460560E57}" uniqueName="31" name="2021-02-02" queryTableFieldId="31" dataDxfId="66"/>
+    <tableColumn id="32" xr3:uid="{A67FF3A5-4642-4CF3-BCED-B3572D6BD929}" uniqueName="32" name="2021-02-03" queryTableFieldId="32" dataDxfId="65"/>
+    <tableColumn id="33" xr3:uid="{71DC5E20-D55D-422B-A8D5-B3325804A090}" uniqueName="33" name="2021-02-04" queryTableFieldId="33" dataDxfId="64"/>
+    <tableColumn id="34" xr3:uid="{CEA51D88-EDEC-41AC-B207-CE0B657168D6}" uniqueName="34" name="2021-02-05" queryTableFieldId="34" dataDxfId="63"/>
+    <tableColumn id="35" xr3:uid="{81E55495-A2D5-49E0-B3EF-CA2C6DB567D8}" uniqueName="35" name="2021-02-06" queryTableFieldId="35" dataDxfId="62"/>
+    <tableColumn id="36" xr3:uid="{0E1F4EE4-8005-4A57-85E4-4565C23DC588}" uniqueName="36" name="2021-02-08" queryTableFieldId="36" dataDxfId="61"/>
+    <tableColumn id="37" xr3:uid="{8F72ADDC-5ECB-41BE-9992-2C24CD8D0F48}" uniqueName="37" name="2021-02-09" queryTableFieldId="37" dataDxfId="60"/>
+    <tableColumn id="38" xr3:uid="{F63B76BF-4656-4A90-A9A6-ADF1B9B6A905}" uniqueName="38" name="2021-02-10" queryTableFieldId="38" dataDxfId="59"/>
+    <tableColumn id="39" xr3:uid="{67BAD283-BCD2-4AF3-A4CB-10FB474000F2}" uniqueName="39" name="2021-02-11" queryTableFieldId="39" dataDxfId="58"/>
+    <tableColumn id="40" xr3:uid="{A2256D42-D852-4ACD-9829-9C7A5B785603}" uniqueName="40" name="2021-02-12" queryTableFieldId="40" dataDxfId="57"/>
+    <tableColumn id="41" xr3:uid="{CCBC68B1-E87A-44FD-ADB5-AD3371898424}" uniqueName="41" name="2021-02-13" queryTableFieldId="41" dataDxfId="56"/>
+    <tableColumn id="42" xr3:uid="{905F3067-DCDD-4339-84E4-CC01BFF14869}" uniqueName="42" name="2021-02-14" queryTableFieldId="42" dataDxfId="55"/>
+    <tableColumn id="43" xr3:uid="{C2C62817-513E-418D-860E-7D00294ED275}" uniqueName="43" name="2021-02-15" queryTableFieldId="43" dataDxfId="54"/>
+    <tableColumn id="44" xr3:uid="{D6101F81-EE44-43F8-AF33-0A0714E790DD}" uniqueName="44" name="2021-02-16" queryTableFieldId="44" dataDxfId="53"/>
+    <tableColumn id="45" xr3:uid="{F1028BA9-33D8-4089-BB69-37948ED93599}" uniqueName="45" name="2021-02-17" queryTableFieldId="45" dataDxfId="52"/>
+    <tableColumn id="46" xr3:uid="{AF904653-5D4E-4862-B975-7EAD2E088AE1}" uniqueName="46" name="2021-02-18" queryTableFieldId="46" dataDxfId="51"/>
+    <tableColumn id="47" xr3:uid="{DC3E207A-62AC-4DC0-AF9B-9C7CF9153A0E}" uniqueName="47" name="2021-02-19" queryTableFieldId="47" dataDxfId="50"/>
+    <tableColumn id="48" xr3:uid="{CF547C87-79D3-4B6A-ADF3-85F8714960B1}" uniqueName="48" name="2021-02-20" queryTableFieldId="48" dataDxfId="49"/>
+    <tableColumn id="49" xr3:uid="{FBDAD5C6-9586-4868-88BF-86A203F76A88}" uniqueName="49" name="2021-02-22" queryTableFieldId="49" dataDxfId="48"/>
+    <tableColumn id="50" xr3:uid="{A44788EA-F58D-4FBB-87CD-547DAF1FD297}" uniqueName="50" name="2021-02-23" queryTableFieldId="50" dataDxfId="47"/>
+    <tableColumn id="51" xr3:uid="{1F213778-1598-4704-B90E-97248AE0B45B}" uniqueName="51" name="2021-02-24" queryTableFieldId="51" dataDxfId="46"/>
+    <tableColumn id="52" xr3:uid="{52E913C1-981E-4366-9774-6EDFE5D6C14B}" uniqueName="52" name="2021-02-25" queryTableFieldId="52" dataDxfId="45"/>
+    <tableColumn id="53" xr3:uid="{A3A9F7BB-1502-402B-AE17-9DCEC71CF81F}" uniqueName="53" name="2021-02-26" queryTableFieldId="53" dataDxfId="44"/>
+    <tableColumn id="54" xr3:uid="{B122FCBD-13A1-4CC4-83A2-F697FF9CBCFC}" uniqueName="54" name="2021-02-27" queryTableFieldId="54" dataDxfId="43"/>
+    <tableColumn id="55" xr3:uid="{78119972-60E3-46A8-BE50-47A57B6F1506}" uniqueName="55" name="2021-03-01" queryTableFieldId="55" dataDxfId="42"/>
+    <tableColumn id="56" xr3:uid="{8C909AB3-C1B8-4AE4-B6D2-EE87129F70E2}" uniqueName="56" name="2021-03-02" queryTableFieldId="56" dataDxfId="41"/>
+    <tableColumn id="57" xr3:uid="{D1020877-ED05-46CF-9475-8CCC6D903432}" uniqueName="57" name="2021-03-03" queryTableFieldId="57" dataDxfId="40"/>
+    <tableColumn id="58" xr3:uid="{87871F80-DE5A-4F74-985C-75D9F0179E3E}" uniqueName="58" name="2021-03-04" queryTableFieldId="58" dataDxfId="39"/>
+    <tableColumn id="59" xr3:uid="{CAA9287D-5DB6-4F97-80B7-373DFCB0239E}" uniqueName="59" name="2021-03-05" queryTableFieldId="59" dataDxfId="38"/>
+    <tableColumn id="60" xr3:uid="{F9AFEBE6-FD50-47F5-AFED-5555D3BA65ED}" uniqueName="60" name="2021-03-06" queryTableFieldId="60" dataDxfId="37"/>
+    <tableColumn id="61" xr3:uid="{BD92C81F-B2B2-48F3-9BD9-DC1B2BC16C43}" uniqueName="61" name="2021-03-08" queryTableFieldId="61" dataDxfId="36"/>
+    <tableColumn id="62" xr3:uid="{AA0DD6EA-49D4-49BA-9D5A-1C91DE243884}" uniqueName="62" name="2021-03-09" queryTableFieldId="62" dataDxfId="35"/>
+    <tableColumn id="63" xr3:uid="{424C4863-BEA4-459E-9417-409AE2033F1E}" uniqueName="63" name="2021-03-10" queryTableFieldId="63" dataDxfId="34"/>
+    <tableColumn id="64" xr3:uid="{7E0EFF6F-51A0-4BAF-A6CC-2878D3803206}" uniqueName="64" name="2021-03-11" queryTableFieldId="64" dataDxfId="33"/>
+    <tableColumn id="65" xr3:uid="{2F1EEC04-E850-4C52-987B-37DAD3A7763A}" uniqueName="65" name="2021-03-12" queryTableFieldId="65" dataDxfId="32"/>
+    <tableColumn id="66" xr3:uid="{7CB88313-FF50-4E4F-8624-9099E78F2457}" uniqueName="66" name="2021-03-13" queryTableFieldId="66" dataDxfId="31"/>
+    <tableColumn id="67" xr3:uid="{6E857539-0A28-4F05-8AD7-A4B30ADA939D}" uniqueName="67" name="2021-03-15" queryTableFieldId="67" dataDxfId="30"/>
+    <tableColumn id="68" xr3:uid="{311EA0CA-FC3F-437C-A027-12814924B7BF}" uniqueName="68" name="2021-03-16" queryTableFieldId="68" dataDxfId="29"/>
+    <tableColumn id="69" xr3:uid="{6A65FA86-1F4B-40FE-A7FB-5E04B59D10F2}" uniqueName="69" name="2021-03-17" queryTableFieldId="69" dataDxfId="28"/>
+    <tableColumn id="70" xr3:uid="{61E6AE3D-61D0-4C36-858B-F5CEF71DD415}" uniqueName="70" name="2021-03-18" queryTableFieldId="70" dataDxfId="27"/>
+    <tableColumn id="71" xr3:uid="{0031C90F-0AAD-42CE-8E4B-994C0764B18C}" uniqueName="71" name="2021-03-19" queryTableFieldId="71" dataDxfId="26"/>
+    <tableColumn id="72" xr3:uid="{80934990-C0BD-4741-BF52-E6DD58F8FD11}" uniqueName="72" name="2021-03-20" queryTableFieldId="72" dataDxfId="25"/>
+    <tableColumn id="73" xr3:uid="{5257B932-2DA4-4B7E-BD4E-E97519FA29A5}" uniqueName="73" name="2021-03-22" queryTableFieldId="73" dataDxfId="24"/>
+    <tableColumn id="74" xr3:uid="{7E071135-627B-410A-8EB8-3B430B240FF2}" uniqueName="74" name="2021-03-23" queryTableFieldId="74" dataDxfId="23"/>
+    <tableColumn id="75" xr3:uid="{DDB0CE6F-FFC3-48AB-A2FA-D109D7245D44}" uniqueName="75" name="2021-03-24" queryTableFieldId="75" dataDxfId="22"/>
+    <tableColumn id="76" xr3:uid="{34D92D41-B6E3-43DC-B607-AE2E28DD8E31}" uniqueName="76" name="2021-03-25" queryTableFieldId="76" dataDxfId="21"/>
+    <tableColumn id="77" xr3:uid="{C29F1DAB-2672-4337-A605-EFA7D1B71DED}" uniqueName="77" name="2021-03-26" queryTableFieldId="77" dataDxfId="20"/>
+    <tableColumn id="78" xr3:uid="{7074E839-802A-4B45-A967-5B7B478ECB19}" uniqueName="78" name="2021-03-29" queryTableFieldId="78" dataDxfId="19"/>
+    <tableColumn id="79" xr3:uid="{290A4EC5-571B-4742-A88E-F52665A1BC39}" uniqueName="79" name="2021-03-30" queryTableFieldId="79" dataDxfId="18"/>
+    <tableColumn id="80" xr3:uid="{BAF44ED4-CD3A-4020-ADB9-F644362B31FC}" uniqueName="80" name="2021-03-31" queryTableFieldId="80" dataDxfId="17"/>
+    <tableColumn id="81" xr3:uid="{8290D7C0-606C-4AE0-94FE-6A4340F93690}" uniqueName="81" name="2021-04-01" queryTableFieldId="81" dataDxfId="16"/>
+    <tableColumn id="82" xr3:uid="{E61D5B89-EB06-45A9-BD95-E0E27A28B4A7}" uniqueName="82" name="2021-04-03" queryTableFieldId="82" dataDxfId="15"/>
+    <tableColumn id="83" xr3:uid="{658D0956-A404-437E-828C-298F3C55147F}" uniqueName="83" name="2021-04-04" queryTableFieldId="83" dataDxfId="14"/>
+    <tableColumn id="84" xr3:uid="{111FC3F4-8CA0-4388-B521-5FC9436A8324}" uniqueName="84" name="2021-04-05" queryTableFieldId="84" dataDxfId="13"/>
+    <tableColumn id="85" xr3:uid="{4FE1A9EE-05A4-481C-B5A4-8B5B08F70307}" uniqueName="85" name="2021-04-06" queryTableFieldId="85" dataDxfId="12"/>
+    <tableColumn id="86" xr3:uid="{BBC8A6A8-7788-4130-BF75-EE3CFD0C7A1F}" uniqueName="86" name="2021-04-07" queryTableFieldId="86" dataDxfId="11"/>
+    <tableColumn id="87" xr3:uid="{10246CFE-3FEE-472D-8DF7-93A8FB449908}" uniqueName="87" name="2021-04-08" queryTableFieldId="87" dataDxfId="10"/>
+    <tableColumn id="88" xr3:uid="{2A7FDF7A-6D79-44C1-81AB-C28593316A7C}" uniqueName="88" name="2021-04-09" queryTableFieldId="88" dataDxfId="9"/>
+    <tableColumn id="89" xr3:uid="{24CBC6CB-936F-40BF-A437-9EC0031F7EC1}" uniqueName="89" name="2021-04-10" queryTableFieldId="89" dataDxfId="8"/>
+    <tableColumn id="90" xr3:uid="{D6F6DE07-F1E5-47A3-BB7E-E2446891E33E}" uniqueName="90" name="2021-04-12" queryTableFieldId="90" dataDxfId="7"/>
+    <tableColumn id="91" xr3:uid="{5BABBB2B-E164-4804-82E8-D64B17702690}" uniqueName="91" name="2021-04-13" queryTableFieldId="91" dataDxfId="6"/>
+    <tableColumn id="92" xr3:uid="{1CDAC74A-0F1D-49E7-9DD9-6AB8BBA5D14D}" uniqueName="92" name="2021-04-14" queryTableFieldId="92" dataDxfId="5"/>
+    <tableColumn id="93" xr3:uid="{C2080427-741D-4383-8715-6672EF96F8C2}" uniqueName="93" name="2021-04-15" queryTableFieldId="93" dataDxfId="4"/>
+    <tableColumn id="94" xr3:uid="{915BA8BC-E0BC-4BCA-AE37-4C4BEEC4AACE}" uniqueName="94" name="2021-04-16" queryTableFieldId="94" dataDxfId="3"/>
+    <tableColumn id="95" xr3:uid="{F4063C08-E665-4B95-8E49-56E024883C63}" uniqueName="95" name="2021-04-17" queryTableFieldId="95" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D54F74F-108D-4C76-A8A6-96F12C81A236}" name="Tabla_Auxiliar_Nacimientos_2021" displayName="Tabla_Auxiliar_Nacimientos_2021" ref="A1:T2" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D54F74F-108D-4C76-A8A6-96F12C81A236}" name="Tabla_Auxiliar_Nacimientos_2021" displayName="Tabla_Auxiliar_Nacimientos_2021" ref="A1:T2" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
   <autoFilter ref="A1:T2" xr:uid="{E55F98FA-ED91-4CD8-8F40-F60B4C230407}"/>
   <tableColumns count="20">
     <tableColumn id="2" xr3:uid="{2EA9194E-918B-4F33-928C-6F9C29328DA4}" name="Descripción Corta"/>
@@ -2822,7 +2813,7 @@
   <dimension ref="A1:CU198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,8 +3135,8 @@
       <c r="B2" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>602</v>
+      <c r="C2" s="7">
+        <v>220201007</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>594</v>
@@ -3443,8 +3434,8 @@
       <c r="B3" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>602</v>
+      <c r="C3" s="7">
+        <v>220201007</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>594</v>
@@ -3742,8 +3733,8 @@
       <c r="B4" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>602</v>
+      <c r="C4" s="7">
+        <v>220201007</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>594</v>
@@ -4041,8 +4032,8 @@
       <c r="B5" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>602</v>
+      <c r="C5" s="7">
+        <v>220201007</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>594</v>
@@ -4340,8 +4331,8 @@
       <c r="B6" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>602</v>
+      <c r="C6" s="7">
+        <v>220201007</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>594</v>
@@ -4639,8 +4630,8 @@
       <c r="B7" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>602</v>
+      <c r="C7" s="7">
+        <v>220201007</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>594</v>
@@ -4938,8 +4929,8 @@
       <c r="B8" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>602</v>
+      <c r="C8" s="7">
+        <v>220201007</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>594</v>
@@ -5237,8 +5228,8 @@
       <c r="B9" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>602</v>
+      <c r="C9" s="7">
+        <v>220201007</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>594</v>
@@ -5536,8 +5527,8 @@
       <c r="B10" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>602</v>
+      <c r="C10" s="7">
+        <v>220201007</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>594</v>
@@ -5835,8 +5826,8 @@
       <c r="B11" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>602</v>
+      <c r="C11" s="7">
+        <v>220201007</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>594</v>
@@ -6134,8 +6125,8 @@
       <c r="B12" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>602</v>
+      <c r="C12" s="7">
+        <v>220201007</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>594</v>
@@ -6433,8 +6424,8 @@
       <c r="B13" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>602</v>
+      <c r="C13" s="7">
+        <v>220201007</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>594</v>
@@ -6732,8 +6723,8 @@
       <c r="B14" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>602</v>
+      <c r="C14" s="7">
+        <v>220201007</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>594</v>
@@ -7031,8 +7022,8 @@
       <c r="B15" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>602</v>
+      <c r="C15" s="7">
+        <v>220201007</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>594</v>
@@ -7330,8 +7321,8 @@
       <c r="B16" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>602</v>
+      <c r="C16" s="7">
+        <v>220201007</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>594</v>
@@ -7629,8 +7620,8 @@
       <c r="B17" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>602</v>
+      <c r="C17" s="7">
+        <v>220201007</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>594</v>
@@ -7928,8 +7919,8 @@
       <c r="B18" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>602</v>
+      <c r="C18" s="7">
+        <v>220201007</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>594</v>
@@ -8227,8 +8218,8 @@
       <c r="B19" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>602</v>
+      <c r="C19" s="7">
+        <v>220201007</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>594</v>
@@ -8526,8 +8517,8 @@
       <c r="B20" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>602</v>
+      <c r="C20" s="7">
+        <v>220201007</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>594</v>
@@ -8825,8 +8816,8 @@
       <c r="B21" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>602</v>
+      <c r="C21" s="7">
+        <v>220201007</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>594</v>
@@ -9124,8 +9115,8 @@
       <c r="B22" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>602</v>
+      <c r="C22" s="7">
+        <v>220201007</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>594</v>
@@ -9423,8 +9414,8 @@
       <c r="B23" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>602</v>
+      <c r="C23" s="7">
+        <v>220201007</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>594</v>
@@ -9722,8 +9713,8 @@
       <c r="B24" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>602</v>
+      <c r="C24" s="7">
+        <v>220201007</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>594</v>
@@ -10021,8 +10012,8 @@
       <c r="B25" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>602</v>
+      <c r="C25" s="7">
+        <v>220201007</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>594</v>
@@ -10320,8 +10311,8 @@
       <c r="B26" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>602</v>
+      <c r="C26" s="7">
+        <v>220201007</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>594</v>
@@ -10619,8 +10610,8 @@
       <c r="B27" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>602</v>
+      <c r="C27" s="7">
+        <v>220201007</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>594</v>
@@ -10918,8 +10909,8 @@
       <c r="B28" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>602</v>
+      <c r="C28" s="7">
+        <v>220201007</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>594</v>
@@ -11217,8 +11208,8 @@
       <c r="B29" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>602</v>
+      <c r="C29" s="7">
+        <v>220201007</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>594</v>
@@ -11516,8 +11507,8 @@
       <c r="B30" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>602</v>
+      <c r="C30" s="7">
+        <v>220201007</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>594</v>
@@ -11815,8 +11806,8 @@
       <c r="B31" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>602</v>
+      <c r="C31" s="7">
+        <v>220201007</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>594</v>
@@ -12114,8 +12105,8 @@
       <c r="B32" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>602</v>
+      <c r="C32" s="7">
+        <v>220201007</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>594</v>
@@ -12413,8 +12404,8 @@
       <c r="B33" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>602</v>
+      <c r="C33" s="7">
+        <v>220201007</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>594</v>
@@ -12712,8 +12703,8 @@
       <c r="B34" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>602</v>
+      <c r="C34" s="7">
+        <v>220201007</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>594</v>
@@ -13011,8 +13002,8 @@
       <c r="B35" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>602</v>
+      <c r="C35" s="7">
+        <v>220201007</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>594</v>
@@ -13310,8 +13301,8 @@
       <c r="B36" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>602</v>
+      <c r="C36" s="7">
+        <v>220201007</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>594</v>
@@ -13609,8 +13600,8 @@
       <c r="B37" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>602</v>
+      <c r="C37" s="7">
+        <v>220201007</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>594</v>
@@ -13908,8 +13899,8 @@
       <c r="B38" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>602</v>
+      <c r="C38" s="7">
+        <v>220201007</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>594</v>
@@ -14207,8 +14198,8 @@
       <c r="B39" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>602</v>
+      <c r="C39" s="7">
+        <v>220201007</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>594</v>
@@ -14506,8 +14497,8 @@
       <c r="B40" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>602</v>
+      <c r="C40" s="7">
+        <v>220201007</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>594</v>
@@ -14805,8 +14796,8 @@
       <c r="B41" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>602</v>
+      <c r="C41" s="7">
+        <v>220201007</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>594</v>
@@ -15104,8 +15095,8 @@
       <c r="B42" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>602</v>
+      <c r="C42" s="7">
+        <v>220201007</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>594</v>
@@ -15403,8 +15394,8 @@
       <c r="B43" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>602</v>
+      <c r="C43" s="7">
+        <v>220201007</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>594</v>
@@ -15702,8 +15693,8 @@
       <c r="B44" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>602</v>
+      <c r="C44" s="7">
+        <v>220201007</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>594</v>
@@ -16001,8 +15992,8 @@
       <c r="B45" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>602</v>
+      <c r="C45" s="7">
+        <v>220201007</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>594</v>
@@ -16300,8 +16291,8 @@
       <c r="B46" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>602</v>
+      <c r="C46" s="7">
+        <v>220201007</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>594</v>
@@ -16599,8 +16590,8 @@
       <c r="B47" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>602</v>
+      <c r="C47" s="7">
+        <v>220201007</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>594</v>
@@ -16898,8 +16889,8 @@
       <c r="B48" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>602</v>
+      <c r="C48" s="7">
+        <v>220201007</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>594</v>
@@ -17197,8 +17188,8 @@
       <c r="B49" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>602</v>
+      <c r="C49" s="7">
+        <v>220201007</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>594</v>
@@ -17496,8 +17487,8 @@
       <c r="B50" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>602</v>
+      <c r="C50" s="7">
+        <v>220201007</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>594</v>
@@ -17795,8 +17786,8 @@
       <c r="B51" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>602</v>
+      <c r="C51" s="7">
+        <v>220201007</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>594</v>
@@ -18094,8 +18085,8 @@
       <c r="B52" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>602</v>
+      <c r="C52" s="7">
+        <v>220201007</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>594</v>
@@ -18393,8 +18384,8 @@
       <c r="B53" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>602</v>
+      <c r="C53" s="7">
+        <v>220201007</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>594</v>
@@ -18692,8 +18683,8 @@
       <c r="B54" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>602</v>
+      <c r="C54" s="7">
+        <v>220201007</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>594</v>
@@ -18991,8 +18982,8 @@
       <c r="B55" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>602</v>
+      <c r="C55" s="7">
+        <v>220201007</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>594</v>
@@ -19290,8 +19281,8 @@
       <c r="B56" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>602</v>
+      <c r="C56" s="7">
+        <v>220201007</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>594</v>
@@ -19589,8 +19580,8 @@
       <c r="B57" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>602</v>
+      <c r="C57" s="7">
+        <v>220201007</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>594</v>
@@ -19888,8 +19879,8 @@
       <c r="B58" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>602</v>
+      <c r="C58" s="7">
+        <v>220201007</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>594</v>
@@ -20187,8 +20178,8 @@
       <c r="B59" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>602</v>
+      <c r="C59" s="7">
+        <v>220201007</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>594</v>
@@ -20486,8 +20477,8 @@
       <c r="B60" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>602</v>
+      <c r="C60" s="7">
+        <v>220201007</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>594</v>
@@ -20785,8 +20776,8 @@
       <c r="B61" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>602</v>
+      <c r="C61" s="7">
+        <v>220201007</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>594</v>
@@ -21084,8 +21075,8 @@
       <c r="B62" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>602</v>
+      <c r="C62" s="7">
+        <v>220201007</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>594</v>
@@ -21383,8 +21374,8 @@
       <c r="B63" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>602</v>
+      <c r="C63" s="7">
+        <v>220201007</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>594</v>
@@ -21682,8 +21673,8 @@
       <c r="B64" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>602</v>
+      <c r="C64" s="7">
+        <v>220201007</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>594</v>
@@ -21981,8 +21972,8 @@
       <c r="B65" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>602</v>
+      <c r="C65" s="7">
+        <v>220201007</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>594</v>
@@ -22280,8 +22271,8 @@
       <c r="B66" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>602</v>
+      <c r="C66" s="7">
+        <v>220201007</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>594</v>
@@ -22579,8 +22570,8 @@
       <c r="B67" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>602</v>
+      <c r="C67" s="7">
+        <v>220201007</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>594</v>
@@ -22878,8 +22869,8 @@
       <c r="B68" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>602</v>
+      <c r="C68" s="7">
+        <v>220201007</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>594</v>
@@ -23177,8 +23168,8 @@
       <c r="B69" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>602</v>
+      <c r="C69" s="7">
+        <v>220201007</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>594</v>
@@ -23476,8 +23467,8 @@
       <c r="B70" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>602</v>
+      <c r="C70" s="7">
+        <v>220201007</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>594</v>
@@ -23775,8 +23766,8 @@
       <c r="B71" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>602</v>
+      <c r="C71" s="7">
+        <v>220201007</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>594</v>
@@ -24074,8 +24065,8 @@
       <c r="B72" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>602</v>
+      <c r="C72" s="7">
+        <v>220201007</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>594</v>
@@ -24373,8 +24364,8 @@
       <c r="B73" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>602</v>
+      <c r="C73" s="7">
+        <v>220201007</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>594</v>
@@ -24672,8 +24663,8 @@
       <c r="B74" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>602</v>
+      <c r="C74" s="7">
+        <v>220201007</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>594</v>
@@ -24971,8 +24962,8 @@
       <c r="B75" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>602</v>
+      <c r="C75" s="7">
+        <v>220201007</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>594</v>
@@ -25270,8 +25261,8 @@
       <c r="B76" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>602</v>
+      <c r="C76" s="7">
+        <v>220201007</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>594</v>
@@ -25569,8 +25560,8 @@
       <c r="B77" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>602</v>
+      <c r="C77" s="7">
+        <v>220201007</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>594</v>
@@ -25868,8 +25859,8 @@
       <c r="B78" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>602</v>
+      <c r="C78" s="7">
+        <v>220201007</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>594</v>
@@ -26167,8 +26158,8 @@
       <c r="B79" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>602</v>
+      <c r="C79" s="7">
+        <v>220201007</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>594</v>
@@ -26466,8 +26457,8 @@
       <c r="B80" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>602</v>
+      <c r="C80" s="7">
+        <v>220201007</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>594</v>
@@ -26765,8 +26756,8 @@
       <c r="B81" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>602</v>
+      <c r="C81" s="7">
+        <v>220201007</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>594</v>
@@ -27064,8 +27055,8 @@
       <c r="B82" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>602</v>
+      <c r="C82" s="7">
+        <v>220201007</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>594</v>
@@ -27363,8 +27354,8 @@
       <c r="B83" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>602</v>
+      <c r="C83" s="7">
+        <v>220201007</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>594</v>
@@ -27662,8 +27653,8 @@
       <c r="B84" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>602</v>
+      <c r="C84" s="7">
+        <v>220201007</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>594</v>
@@ -27961,8 +27952,8 @@
       <c r="B85" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>602</v>
+      <c r="C85" s="7">
+        <v>220201007</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>594</v>
@@ -28260,8 +28251,8 @@
       <c r="B86" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>602</v>
+      <c r="C86" s="7">
+        <v>220201007</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>594</v>
@@ -28559,8 +28550,8 @@
       <c r="B87" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>602</v>
+      <c r="C87" s="7">
+        <v>220201007</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>594</v>
@@ -28858,8 +28849,8 @@
       <c r="B88" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>602</v>
+      <c r="C88" s="7">
+        <v>220201007</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>594</v>
@@ -29157,8 +29148,8 @@
       <c r="B89" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>602</v>
+      <c r="C89" s="7">
+        <v>220201007</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>594</v>
@@ -29456,8 +29447,8 @@
       <c r="B90" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>602</v>
+      <c r="C90" s="7">
+        <v>220201007</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>594</v>
@@ -29755,8 +29746,8 @@
       <c r="B91" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>602</v>
+      <c r="C91" s="7">
+        <v>220201007</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>594</v>
@@ -30054,8 +30045,8 @@
       <c r="B92" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>602</v>
+      <c r="C92" s="7">
+        <v>220201007</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>594</v>
@@ -30353,8 +30344,8 @@
       <c r="B93" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>602</v>
+      <c r="C93" s="7">
+        <v>220201007</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>594</v>
@@ -30652,8 +30643,8 @@
       <c r="B94" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>602</v>
+      <c r="C94" s="7">
+        <v>220201007</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>594</v>
@@ -30951,8 +30942,8 @@
       <c r="B95" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>602</v>
+      <c r="C95" s="7">
+        <v>220201007</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>594</v>
@@ -31250,8 +31241,8 @@
       <c r="B96" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>602</v>
+      <c r="C96" s="7">
+        <v>220201007</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>594</v>
@@ -31549,8 +31540,8 @@
       <c r="B97" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>602</v>
+      <c r="C97" s="7">
+        <v>220201007</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>594</v>
@@ -31848,8 +31839,8 @@
       <c r="B98" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>602</v>
+      <c r="C98" s="7">
+        <v>220201007</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>594</v>
@@ -32147,8 +32138,8 @@
       <c r="B99" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>602</v>
+      <c r="C99" s="7">
+        <v>220201007</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>594</v>
@@ -32446,8 +32437,8 @@
       <c r="B100" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>602</v>
+      <c r="C100" s="7">
+        <v>220201007</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>594</v>
@@ -32745,8 +32736,8 @@
       <c r="B101" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>602</v>
+      <c r="C101" s="7">
+        <v>220201007</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>594</v>
@@ -33044,8 +33035,8 @@
       <c r="B102" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>602</v>
+      <c r="C102" s="7">
+        <v>220201007</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>594</v>
@@ -33343,8 +33334,8 @@
       <c r="B103" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>602</v>
+      <c r="C103" s="7">
+        <v>220201007</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>594</v>
@@ -33642,8 +33633,8 @@
       <c r="B104" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>602</v>
+      <c r="C104" s="7">
+        <v>220201007</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>594</v>
@@ -33941,8 +33932,8 @@
       <c r="B105" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C105" s="7" t="s">
-        <v>602</v>
+      <c r="C105" s="7">
+        <v>220201007</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>594</v>
@@ -34240,8 +34231,8 @@
       <c r="B106" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>602</v>
+      <c r="C106" s="7">
+        <v>220201007</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>594</v>
@@ -34539,8 +34530,8 @@
       <c r="B107" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C107" s="7" t="s">
-        <v>602</v>
+      <c r="C107" s="7">
+        <v>220201007</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>594</v>
@@ -34838,8 +34829,8 @@
       <c r="B108" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C108" s="7" t="s">
-        <v>602</v>
+      <c r="C108" s="7">
+        <v>220201007</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>594</v>
@@ -35137,8 +35128,8 @@
       <c r="B109" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>602</v>
+      <c r="C109" s="7">
+        <v>220201007</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>594</v>
@@ -35436,8 +35427,8 @@
       <c r="B110" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>602</v>
+      <c r="C110" s="7">
+        <v>220201007</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>594</v>
@@ -35735,8 +35726,8 @@
       <c r="B111" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>602</v>
+      <c r="C111" s="7">
+        <v>220201007</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>594</v>
@@ -36034,8 +36025,8 @@
       <c r="B112" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C112" s="7" t="s">
-        <v>602</v>
+      <c r="C112" s="7">
+        <v>220201007</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>594</v>
@@ -36333,8 +36324,8 @@
       <c r="B113" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>602</v>
+      <c r="C113" s="7">
+        <v>220201007</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>594</v>
@@ -36632,8 +36623,8 @@
       <c r="B114" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>602</v>
+      <c r="C114" s="7">
+        <v>220201007</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>594</v>
@@ -36931,8 +36922,8 @@
       <c r="B115" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C115" s="7" t="s">
-        <v>602</v>
+      <c r="C115" s="7">
+        <v>220201007</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>594</v>
@@ -37230,8 +37221,8 @@
       <c r="B116" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>602</v>
+      <c r="C116" s="7">
+        <v>220201007</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>594</v>
@@ -37529,8 +37520,8 @@
       <c r="B117" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C117" s="7" t="s">
-        <v>602</v>
+      <c r="C117" s="7">
+        <v>220201007</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>594</v>
@@ -37828,8 +37819,8 @@
       <c r="B118" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C118" s="7" t="s">
-        <v>602</v>
+      <c r="C118" s="7">
+        <v>220201007</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>594</v>
@@ -38127,8 +38118,8 @@
       <c r="B119" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C119" s="7" t="s">
-        <v>602</v>
+      <c r="C119" s="7">
+        <v>220201007</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>594</v>
@@ -38426,8 +38417,8 @@
       <c r="B120" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>602</v>
+      <c r="C120" s="7">
+        <v>220201007</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>594</v>
@@ -38725,8 +38716,8 @@
       <c r="B121" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>602</v>
+      <c r="C121" s="7">
+        <v>220201007</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>594</v>
@@ -39024,8 +39015,8 @@
       <c r="B122" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>602</v>
+      <c r="C122" s="7">
+        <v>220201007</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>594</v>
@@ -39323,8 +39314,8 @@
       <c r="B123" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>602</v>
+      <c r="C123" s="7">
+        <v>220201007</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>594</v>
@@ -39622,8 +39613,8 @@
       <c r="B124" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>602</v>
+      <c r="C124" s="7">
+        <v>220201007</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>594</v>
@@ -39921,8 +39912,8 @@
       <c r="B125" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>602</v>
+      <c r="C125" s="7">
+        <v>220201007</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>594</v>
@@ -40220,8 +40211,8 @@
       <c r="B126" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>602</v>
+      <c r="C126" s="7">
+        <v>220201007</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>594</v>
@@ -40519,8 +40510,8 @@
       <c r="B127" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>602</v>
+      <c r="C127" s="7">
+        <v>220201007</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>594</v>
@@ -40818,8 +40809,8 @@
       <c r="B128" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>602</v>
+      <c r="C128" s="7">
+        <v>220201007</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>594</v>
@@ -41117,8 +41108,8 @@
       <c r="B129" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>602</v>
+      <c r="C129" s="7">
+        <v>220201007</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>594</v>
@@ -41416,8 +41407,8 @@
       <c r="B130" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>602</v>
+      <c r="C130" s="7">
+        <v>220201007</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>594</v>
@@ -41715,8 +41706,8 @@
       <c r="B131" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C131" s="7" t="s">
-        <v>602</v>
+      <c r="C131" s="7">
+        <v>220201007</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>594</v>
@@ -42014,8 +42005,8 @@
       <c r="B132" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>602</v>
+      <c r="C132" s="7">
+        <v>220201007</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>594</v>
@@ -42313,8 +42304,8 @@
       <c r="B133" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>602</v>
+      <c r="C133" s="7">
+        <v>220201007</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>594</v>
@@ -42612,8 +42603,8 @@
       <c r="B134" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>602</v>
+      <c r="C134" s="7">
+        <v>220201007</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>594</v>
@@ -42911,8 +42902,8 @@
       <c r="B135" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C135" s="7" t="s">
-        <v>602</v>
+      <c r="C135" s="7">
+        <v>220201007</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>594</v>
@@ -43210,8 +43201,8 @@
       <c r="B136" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C136" s="7" t="s">
-        <v>602</v>
+      <c r="C136" s="7">
+        <v>220201007</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>594</v>
@@ -43509,8 +43500,8 @@
       <c r="B137" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C137" s="7" t="s">
-        <v>602</v>
+      <c r="C137" s="7">
+        <v>220201007</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>594</v>
@@ -43808,8 +43799,8 @@
       <c r="B138" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C138" s="7" t="s">
-        <v>602</v>
+      <c r="C138" s="7">
+        <v>220201007</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>594</v>
@@ -44107,8 +44098,8 @@
       <c r="B139" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>602</v>
+      <c r="C139" s="7">
+        <v>220201007</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>594</v>
@@ -44406,8 +44397,8 @@
       <c r="B140" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>602</v>
+      <c r="C140" s="7">
+        <v>220201007</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>594</v>
@@ -44705,8 +44696,8 @@
       <c r="B141" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C141" s="7" t="s">
-        <v>602</v>
+      <c r="C141" s="7">
+        <v>220201007</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>594</v>
@@ -45004,8 +44995,8 @@
       <c r="B142" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C142" s="7" t="s">
-        <v>602</v>
+      <c r="C142" s="7">
+        <v>220201007</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>594</v>
@@ -45303,8 +45294,8 @@
       <c r="B143" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C143" s="7" t="s">
-        <v>602</v>
+      <c r="C143" s="7">
+        <v>220201007</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>594</v>
@@ -45602,8 +45593,8 @@
       <c r="B144" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>602</v>
+      <c r="C144" s="7">
+        <v>220201007</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>594</v>
@@ -45901,8 +45892,8 @@
       <c r="B145" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C145" s="7" t="s">
-        <v>602</v>
+      <c r="C145" s="7">
+        <v>220201007</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>594</v>
@@ -46200,8 +46191,8 @@
       <c r="B146" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C146" s="7" t="s">
-        <v>602</v>
+      <c r="C146" s="7">
+        <v>220201007</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>594</v>
@@ -46499,8 +46490,8 @@
       <c r="B147" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C147" s="7" t="s">
-        <v>602</v>
+      <c r="C147" s="7">
+        <v>220201007</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>594</v>
@@ -46798,8 +46789,8 @@
       <c r="B148" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C148" s="7" t="s">
-        <v>602</v>
+      <c r="C148" s="7">
+        <v>220201007</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>594</v>
@@ -47097,8 +47088,8 @@
       <c r="B149" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C149" s="7" t="s">
-        <v>602</v>
+      <c r="C149" s="7">
+        <v>220201007</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>594</v>
@@ -47396,8 +47387,8 @@
       <c r="B150" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C150" s="7" t="s">
-        <v>602</v>
+      <c r="C150" s="7">
+        <v>220201007</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>594</v>
@@ -47695,8 +47686,8 @@
       <c r="B151" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C151" s="7" t="s">
-        <v>602</v>
+      <c r="C151" s="7">
+        <v>220201007</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>594</v>
@@ -47994,8 +47985,8 @@
       <c r="B152" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C152" s="7" t="s">
-        <v>602</v>
+      <c r="C152" s="7">
+        <v>220201007</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>594</v>
@@ -48293,8 +48284,8 @@
       <c r="B153" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C153" s="7" t="s">
-        <v>602</v>
+      <c r="C153" s="7">
+        <v>220201007</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>594</v>
@@ -48592,8 +48583,8 @@
       <c r="B154" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>602</v>
+      <c r="C154" s="7">
+        <v>220201007</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>594</v>
@@ -48891,8 +48882,8 @@
       <c r="B155" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>602</v>
+      <c r="C155" s="7">
+        <v>220201007</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>594</v>
@@ -49190,8 +49181,8 @@
       <c r="B156" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>602</v>
+      <c r="C156" s="7">
+        <v>220201007</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>594</v>
@@ -49489,8 +49480,8 @@
       <c r="B157" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>602</v>
+      <c r="C157" s="7">
+        <v>220201007</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>594</v>
@@ -49788,8 +49779,8 @@
       <c r="B158" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C158" s="7" t="s">
-        <v>602</v>
+      <c r="C158" s="7">
+        <v>220201007</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>594</v>
@@ -50087,8 +50078,8 @@
       <c r="B159" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>602</v>
+      <c r="C159" s="7">
+        <v>220201007</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>594</v>
@@ -50386,8 +50377,8 @@
       <c r="B160" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>602</v>
+      <c r="C160" s="7">
+        <v>220201007</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>594</v>
@@ -50685,8 +50676,8 @@
       <c r="B161" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>602</v>
+      <c r="C161" s="7">
+        <v>220201007</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>594</v>
@@ -50984,8 +50975,8 @@
       <c r="B162" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>602</v>
+      <c r="C162" s="7">
+        <v>220201007</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>594</v>
@@ -51283,8 +51274,8 @@
       <c r="B163" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>602</v>
+      <c r="C163" s="7">
+        <v>220201007</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>594</v>
@@ -51582,8 +51573,8 @@
       <c r="B164" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C164" s="7" t="s">
-        <v>602</v>
+      <c r="C164" s="7">
+        <v>220201007</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>594</v>
@@ -51881,8 +51872,8 @@
       <c r="B165" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C165" s="7" t="s">
-        <v>602</v>
+      <c r="C165" s="7">
+        <v>220201007</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>594</v>
@@ -52180,8 +52171,8 @@
       <c r="B166" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>602</v>
+      <c r="C166" s="7">
+        <v>220201007</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>594</v>
@@ -52479,8 +52470,8 @@
       <c r="B167" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C167" s="7" t="s">
-        <v>602</v>
+      <c r="C167" s="7">
+        <v>220201007</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>594</v>
@@ -52778,8 +52769,8 @@
       <c r="B168" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C168" s="7" t="s">
-        <v>602</v>
+      <c r="C168" s="7">
+        <v>220201007</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>594</v>
@@ -53077,8 +53068,8 @@
       <c r="B169" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C169" s="7" t="s">
-        <v>602</v>
+      <c r="C169" s="7">
+        <v>220201007</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>594</v>
@@ -53376,8 +53367,8 @@
       <c r="B170" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C170" s="7" t="s">
-        <v>602</v>
+      <c r="C170" s="7">
+        <v>220201007</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>594</v>
@@ -53675,8 +53666,8 @@
       <c r="B171" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>602</v>
+      <c r="C171" s="7">
+        <v>220201007</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>594</v>
@@ -53974,8 +53965,8 @@
       <c r="B172" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>602</v>
+      <c r="C172" s="7">
+        <v>220201007</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>594</v>
@@ -54273,8 +54264,8 @@
       <c r="B173" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>602</v>
+      <c r="C173" s="7">
+        <v>220201007</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>594</v>
@@ -54572,8 +54563,8 @@
       <c r="B174" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C174" s="7" t="s">
-        <v>602</v>
+      <c r="C174" s="7">
+        <v>220201007</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>594</v>
@@ -54871,8 +54862,8 @@
       <c r="B175" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>602</v>
+      <c r="C175" s="7">
+        <v>220201007</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>594</v>
@@ -55170,8 +55161,8 @@
       <c r="B176" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C176" s="7" t="s">
-        <v>602</v>
+      <c r="C176" s="7">
+        <v>220201007</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>594</v>
@@ -55469,8 +55460,8 @@
       <c r="B177" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>602</v>
+      <c r="C177" s="7">
+        <v>220201007</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>594</v>
@@ -55768,8 +55759,8 @@
       <c r="B178" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C178" s="7" t="s">
-        <v>602</v>
+      <c r="C178" s="7">
+        <v>220201007</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>594</v>
@@ -56067,8 +56058,8 @@
       <c r="B179" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C179" s="7" t="s">
-        <v>602</v>
+      <c r="C179" s="7">
+        <v>220201007</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>594</v>
@@ -56366,8 +56357,8 @@
       <c r="B180" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>602</v>
+      <c r="C180" s="7">
+        <v>220201007</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>594</v>
@@ -56665,8 +56656,8 @@
       <c r="B181" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C181" s="7" t="s">
-        <v>602</v>
+      <c r="C181" s="7">
+        <v>220201007</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>594</v>
@@ -56964,8 +56955,8 @@
       <c r="B182" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>602</v>
+      <c r="C182" s="7">
+        <v>220201007</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>594</v>
@@ -57263,8 +57254,8 @@
       <c r="B183" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>602</v>
+      <c r="C183" s="7">
+        <v>220201007</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>594</v>
@@ -57562,8 +57553,8 @@
       <c r="B184" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>602</v>
+      <c r="C184" s="7">
+        <v>220201007</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>594</v>
@@ -57861,8 +57852,8 @@
       <c r="B185" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C185" s="7" t="s">
-        <v>602</v>
+      <c r="C185" s="7">
+        <v>220201007</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>594</v>
@@ -58160,8 +58151,8 @@
       <c r="B186" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C186" s="7" t="s">
-        <v>602</v>
+      <c r="C186" s="7">
+        <v>220201007</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>594</v>
@@ -58459,8 +58450,8 @@
       <c r="B187" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C187" s="7" t="s">
-        <v>602</v>
+      <c r="C187" s="7">
+        <v>220201007</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>594</v>
@@ -58758,8 +58749,8 @@
       <c r="B188" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>602</v>
+      <c r="C188" s="7">
+        <v>220201007</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>594</v>
@@ -59057,8 +59048,8 @@
       <c r="B189" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C189" s="7" t="s">
-        <v>602</v>
+      <c r="C189" s="7">
+        <v>220201007</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>594</v>
@@ -59356,8 +59347,8 @@
       <c r="B190" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C190" s="7" t="s">
-        <v>602</v>
+      <c r="C190" s="7">
+        <v>220201007</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>594</v>
@@ -59655,8 +59646,8 @@
       <c r="B191" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C191" s="7" t="s">
-        <v>602</v>
+      <c r="C191" s="7">
+        <v>220201007</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>594</v>
@@ -59954,8 +59945,8 @@
       <c r="B192" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C192" s="7" t="s">
-        <v>602</v>
+      <c r="C192" s="7">
+        <v>220201007</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>594</v>
@@ -60253,8 +60244,8 @@
       <c r="B193" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C193" s="7" t="s">
-        <v>602</v>
+      <c r="C193" s="7">
+        <v>220201007</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>594</v>
@@ -60552,8 +60543,8 @@
       <c r="B194" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C194" s="7" t="s">
-        <v>602</v>
+      <c r="C194" s="7">
+        <v>220201007</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>594</v>
@@ -60851,8 +60842,8 @@
       <c r="B195" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C195" s="7" t="s">
-        <v>602</v>
+      <c r="C195" s="7">
+        <v>220201007</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>594</v>
@@ -61150,8 +61141,8 @@
       <c r="B196" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C196" s="7" t="s">
-        <v>602</v>
+      <c r="C196" s="7">
+        <v>220201007</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>594</v>
@@ -61449,8 +61440,8 @@
       <c r="B197" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C197" s="7" t="s">
-        <v>602</v>
+      <c r="C197" s="7">
+        <v>220201007</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>594</v>
@@ -61748,8 +61739,8 @@
       <c r="B198" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C198" s="7" t="s">
-        <v>602</v>
+      <c r="C198" s="7">
+        <v>220201007</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>594</v>
